--- a/biology/Zoologie/Gerbille_de_Cheesman/Gerbille_de_Cheesman.xlsx
+++ b/biology/Zoologie/Gerbille_de_Cheesman/Gerbille_de_Cheesman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus cheesmani
-La Gerbille de Cheesman[1] (Gerbillus cheesmani ou Gerbillus (Gerbillus) cheesmani) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans la péninsule arabique.
+La Gerbille de Cheesman (Gerbillus cheesmani ou Gerbillus (Gerbillus) cheesmani) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans la péninsule arabique.
 Elle porte le nom de Robert Ernest Cheesman qui l'a découverte.
 </t>
         </is>
